--- a/DB/program_structure.xlsx
+++ b/DB/program_structure.xlsx
@@ -363,16 +363,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -390,6 +391,74 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
         <v>4</v>
       </c>
     </row>
